--- a/01.VietSoftHRM/VietSoftHRM/bin/Debug/Template/KQ_DGKQLVNV.xlsx
+++ b/01.VietSoftHRM/VietSoftHRM/bin/Debug/Template/KQ_DGKQLVNV.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37C8123-E26C-4305-8E18-4919A9565C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,8 +334,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,11 +438,14 @@
       <name val="VNI-TimesNewRoman"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF0000CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val=".VnTime"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000CC"/>
+      <name val=".VnTimeH"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1024,20 +1026,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 27" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal_biÓu mÉu ®Ò nghÞ cÊp vËt tu" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 27" xfId="2"/>
+    <cellStyle name="Normal_biÓu mÉu ®Ò nghÞ cÊp vËt tu" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1066,13 +1073,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="excel">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="excel"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1140,13 +1141,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1189,13 +1184,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1488,11 +1477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4226,7 +4215,7 @@
     <mergeCell ref="C74:L74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>